--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387627.4769879543</v>
+        <v>-390116.2160174709</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>224.7841275141709</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>271.3183651404759</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,10 +871,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>264.6171092506976</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>230.542914368914</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>129.9415567268624</v>
       </c>
       <c r="D5" t="n">
-        <v>5.247097505314502</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>168.7309055946755</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.333261379711857</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>209.5905696186635</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506837</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>34.98723076369662</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.27207585137884</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766868</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>25.2632269748843</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.69211367164871</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>108.5163679066129</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>61.44013021077772</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>214.4033048062076</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797143</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>94.64226186542935</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>107.9721668030668</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>148.8796904206629</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444111</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,10 +2849,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012157</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>77.9361200972557</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.1208074460232</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>2148.434869859538</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943746</v>
+        <v>1779.472352919126</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943746</v>
+        <v>1552.417678662388</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1166.629426064144</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>755.6435212745364</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>340.5710711195329</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2535.03470992366</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686091</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4483,43 +4483,43 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1156.721581898233</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
         <v>902.0370936923462</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1992.201838557431</v>
+        <v>1767.878520285691</v>
       </c>
       <c r="C5" t="n">
-        <v>1623.239321617019</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794323</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794323</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533243</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557431</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995249</v>
+        <v>1071.5958171727</v>
       </c>
       <c r="X7" t="n">
-        <v>651.9203821015076</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y7" t="n">
-        <v>642.4928453543239</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1032.872711818409</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>883.4114536130577</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>714.4752706851508</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>564.358631272815</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>416.4455376904219</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>269.5555901925115</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>101.8527535672305</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>101.8527535672305</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1898.736895713363</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1707.051011540189</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1485.284396109715</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1196.181529235359</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.842048484845</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="X10" t="n">
-        <v>1285.852497586827</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="Y10" t="n">
-        <v>1065.059918443297</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,13 +5030,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5133,7 +5133,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400725</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138422</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703122</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,31 +5291,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>452.7119585201409</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>285.5158592350209</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703212</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424144</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424144</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>526.5658826424144</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>379.6759351445041</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797829</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910818</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570826</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885337</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832671</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487576</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510518</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854716</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648829</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611868</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138512</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703212</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188004</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908937</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908937</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908937</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570828</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279813</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832673</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166295</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189236</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290587</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925701</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.30924124904</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.55052085119</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408902</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1868.398285759937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1868.398285759937</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722977</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362659</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188004</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908936</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908936</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908936</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908936</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648821</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290587</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925701</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.30924124904</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075802</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973197</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>176.574323804722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.28939924684459</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.5947289549153</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>21.59472895491396</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194099</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229175</v>
+        <v>120.1578210480469</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465707</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.77834493961095</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>104.084008081491</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>72.11969353038339</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392193019</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>178.2123075861773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392193927</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.4693302300326</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017760.639075399</v>
+        <v>1017760.639075401</v>
       </c>
     </row>
     <row r="3">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350413</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="F2" t="n">
-        <v>282501.3098915024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>1.513344614068046e-10</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33157.25995071483</v>
+        <v>33157.25995071515</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181822</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181822</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218293.020304659</v>
+        <v>-1218548.88954407</v>
       </c>
       <c r="C6" t="n">
-        <v>87856.72393793613</v>
+        <v>87856.72393793659</v>
       </c>
       <c r="D6" t="n">
-        <v>87856.72393793655</v>
+        <v>87856.72393793668</v>
       </c>
       <c r="E6" t="n">
-        <v>-156420.6019215789</v>
+        <v>-156455.3398470139</v>
       </c>
       <c r="F6" t="n">
-        <v>168991.8598857772</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="G6" t="n">
-        <v>168991.859885777</v>
+        <v>168957.1219603411</v>
       </c>
       <c r="H6" t="n">
-        <v>168991.8598857768</v>
+        <v>168957.1219603413</v>
       </c>
       <c r="I6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="J6" t="n">
-        <v>-48539.34251150042</v>
+        <v>-48574.08043693596</v>
       </c>
       <c r="K6" t="n">
-        <v>168991.8598857768</v>
+        <v>168957.1219603411</v>
       </c>
       <c r="L6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603411</v>
       </c>
       <c r="M6" t="n">
-        <v>83936.83195026506</v>
+        <v>83902.09402482936</v>
       </c>
       <c r="N6" t="n">
-        <v>168991.8598857768</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="O6" t="n">
-        <v>144395.0061600405</v>
+        <v>144395.0061600404</v>
       </c>
       <c r="P6" t="n">
-        <v>163822.7241536722</v>
+        <v>163822.7241536721</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>129.8989141065121</v>
       </c>
       <c r="E2" t="n">
-        <v>129.8989141065043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>235.3313350441452</v>
       </c>
       <c r="D5" t="n">
-        <v>349.4359441153684</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>56.97874979436165</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.2513919723829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>197.285476123048</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194512</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.3651896461415</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>60.66007681866849</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.371795290388154e-11</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28308,13 +28308,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28615,13 +28615,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>8.322765771581471e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.144468577784776e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>9.724062658537595e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.678746113815578e-12</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29569,10 +29569,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,22 +33023,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,10 +33050,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191398</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066272</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899172</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,16 +36525,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
